--- a/data/trans_bre/P25A_9_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,17 +635,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -647,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,09</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,30 +720,40 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,18</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>0,0; 8,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,16</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,0</t>
+          <t>0,0; 11,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,30 +820,40 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 5,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,44</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>162,73%</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>239,94%</t>
+          <t>431,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>266,22%</t>
+          <t>133,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>114,44%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>98,88%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 8,15</t>
+          <t>-0,02; 11,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 6,97</t>
+          <t>-2,62; 6,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,65</t>
+          <t>-1,99; 5,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 1325,46</t>
+          <t>-2,53; 8,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,88; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,51; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>264,09%</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>183,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>115,9%</t>
+          <t>116,8%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>280,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,75%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 9,56</t>
+          <t>1,81; 14,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 10,86</t>
+          <t>-2,57; 11,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 9,98</t>
+          <t>-1,25; 13,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-75,97; —</t>
+          <t>-7,19; 17,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 1787,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 1009,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-72,01; 535,05</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>486,82%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>83,77%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 11,11</t>
+          <t>-6,63; 17,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 5,92</t>
+          <t>0,0; 12,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 22,25</t>
+          <t>3,41; 25,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 238,87</t>
+          <t>-6,4; 30,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-91,68; 467,4</t>
+          <t>-84,47; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,35; 472,82</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>104,84%</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>166,07%</t>
+          <t>325,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>387,58%</t>
+          <t>192,76%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>654,83%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>141,32%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,88</t>
+          <t>1,04; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,28</t>
+          <t>0,05; 3,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,52</t>
+          <t>1,3; 5,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 310,74</t>
+          <t>1,38; 9,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 559,79</t>
+          <t>24,12; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,4; 1153,26</t>
+          <t>-38,49; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>38,77; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 469,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_9_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,28 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.848424527657162</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.200064457507812</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +656,138 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>8.790330544798922</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>18.94729630225525</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,97</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>1.645801343269682</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.615229151010212</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.154560552842652</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.521043729223281</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,77</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,81</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.01088425415662</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.022527380381158</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.33641889677458</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.62910544044252</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,44 +795,32 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,91</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>431,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>133,17%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>114,44%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>98,88%</t>
+      <c r="C10" s="5" t="n">
+        <v>0.8736909275898476</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9177360670147235</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.497232623490507</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -963,254 +828,134 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 11,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 6,36</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 5,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 8,35</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.220269627258403</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>4.693858794170777</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.951532777265479</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>116,8%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>280,59%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>33,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 14,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 11,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 13,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 17,28</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-72,01; 535,05</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.387338673759963</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.69100889877057</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.9400895892987501</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.528953673471045</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>4.406976472221834</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.52394039516374</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.8519502466401772</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9743667856696314</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,48</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>11,01</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>97,45%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>83,77%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.05198202607013905</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.160260324556766</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.228610379959565</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.49091423361546</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,63; 17,36</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 25,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 30,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-84,47; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-40,35; 472,82</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.63392741766688</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.802235494295743</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.361403031691514</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.276052555141884</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +963,275 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>325,69%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>192,76%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>654,83%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>141,32%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.8153670495548</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.13228670657274</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.899454087317165</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2.561630427726671</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.310532773779901</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>3.003795310930666</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.3485688763180427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 5,63</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 3,24</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 5,05</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 9,27</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>24,12; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-38,49; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>38,77; —</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 469,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1.851641666692733</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.190280925277956</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.197897460681359</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-6.605455348248887</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>-0.7018579922496929</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.47835156987042</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.80089393382153</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>12.28408781435842</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>15.15053499124444</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>5.249843212513911</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>6.243825630771249</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.276985408369749</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>12.56279945313526</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>13.06075804199355</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.337339507581714</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.9909840183960879</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-4.20651179492071</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>3.868311365053841</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-4.639201557578615</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.7654288539934787</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.3180476942104936</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>17.9417866472719</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>11.57693327982222</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>32.69506379096789</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>35.95123413481885</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>5.686200492984793</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.060916760808822</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.371156972666729</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.943238663962108</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>5.340355409417145</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>3.737284635997763</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>2.105629595925548</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>6.893976278765637</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>1.667552244132786</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.11016086681512</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1226337889720687</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.353152746113082</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.57768952746869</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.3541704573635523</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3859704957237889</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.3379525810244446</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.2948228106975525</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.350153199248734</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.18251609556517</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.002395594902108</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.846824301847207</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="inlineStr"/>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="n">
+        <v>5.394759552471398</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
